--- a/xlsx/國家冰球聯盟_intext.xlsx
+++ b/xlsx/國家冰球聯盟_intext.xlsx
@@ -29,7 +29,7 @@
     <t>冰球</t>
   </si>
   <si>
-    <t>政策_政策_美國_國家冰球聯盟</t>
+    <t>体育运动_体育运动_冰球_國家冰球聯盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
